--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2005,7 +2005,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-birth-date)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2545,7 +2545,7 @@
     <col min="26" max="26" width="68.2421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -17819,13 +17819,13 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I127" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1649,7 +1649,7 @@
     <t>Observation.value[x].code</t>
   </si>
   <si>
-    <t>Coded responses from the common UCUM units for length.</t>
+    <t>Coded responses from the common UCUM units for number concentration.</t>
   </si>
   <si>
     <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
@@ -1661,7 +1661,7 @@
     <t>wk | a</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-mass-concentration-units</t>
+    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-time-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2542,7 +2542,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.2421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.5859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$135</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5274" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5235" uniqueCount="691">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1148,65 +1148,37 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>value:code}
-value:system}</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ageCode</t>
-  </si>
-  <si>
-    <t>ageCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ageCode.id</t>
-  </si>
-  <si>
     <t>Observation.code.coding.id</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.extension</t>
-  </si>
-  <si>
     <t>Observation.code.coding.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.system</t>
-  </si>
-  <si>
     <t>Observation.code.coding.system</t>
   </si>
   <si>
     <t>http://loinc.org</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.version</t>
-  </si>
-  <si>
     <t>Observation.code.coding.version</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.code</t>
-  </si>
-  <si>
     <t>Observation.code.coding.code</t>
   </si>
   <si>
     <t>29553-5</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.display</t>
-  </si>
-  <si>
     <t>Observation.code.coding.display</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.userSelected</t>
-  </si>
-  <si>
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Age calculated</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -2508,7 +2480,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP136"/>
+  <dimension ref="A1:AP135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11653,7 +11625,7 @@
         <v>92</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
@@ -11735,7 +11707,7 @@
         <v>104</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>358</v>
@@ -12013,7 +11985,7 @@
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -12071,14 +12043,16 @@
         <v>82</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AC79" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>230</v>
@@ -12116,48 +12090,42 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -12205,19 +12173,19 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -12226,10 +12194,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12240,21 +12208,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12266,15 +12234,17 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12311,31 +12281,31 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -12347,7 +12317,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12358,21 +12328,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -12381,27 +12351,29 @@
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12431,31 +12403,31 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12464,10 +12436,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12478,10 +12450,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12489,7 +12461,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>
@@ -12504,26 +12476,24 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>82</v>
@@ -12565,7 +12535,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12586,10 +12556,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12600,10 +12570,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12611,7 +12581,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>92</v>
@@ -12626,24 +12596,26 @@
         <v>93</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12685,7 +12657,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12706,10 +12678,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12720,10 +12692,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12731,7 +12703,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>92</v>
@@ -12746,26 +12718,26 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>82</v>
@@ -12807,7 +12779,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12828,10 +12800,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12842,10 +12814,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12868,19 +12840,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12929,7 +12901,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12950,10 +12922,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12964,10 +12936,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12975,13 +12947,13 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>82</v>
@@ -12990,19 +12962,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -13012,7 +12984,7 @@
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -13051,7 +13023,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13072,10 +13044,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13086,10 +13058,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13112,19 +13084,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>215</v>
+        <v>379</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>285</v>
+        <v>380</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>286</v>
+        <v>381</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>287</v>
+        <v>382</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13173,7 +13145,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13185,22 +13157,22 @@
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>290</v>
+        <v>385</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -13208,10 +13180,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13222,7 +13194,7 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -13234,20 +13206,18 @@
         <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O89" t="s" s="2">
         <v>392</v>
       </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13295,13 +13265,13 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>104</v>
@@ -13310,19 +13280,19 @@
         <v>170</v>
       </c>
       <c r="AK89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AO89" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13330,21 +13300,21 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -13356,18 +13326,20 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N90" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13415,13 +13387,13 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>104</v>
@@ -13430,19 +13402,19 @@
         <v>170</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13450,24 +13422,24 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>82</v>
@@ -13476,19 +13448,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13525,19 +13497,17 @@
         <v>82</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="AC91" s="2"/>
       <c r="AD91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13549,22 +13519,22 @@
         <v>104</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13572,24 +13542,26 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="D92" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>82</v>
@@ -13598,19 +13570,19 @@
         <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13647,17 +13619,19 @@
         <v>82</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AC92" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13669,22 +13643,22 @@
         <v>104</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13692,16 +13666,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13717,23 +13689,19 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>428</v>
+        <v>215</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>417</v>
+        <v>216</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13781,7 +13749,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>414</v>
+        <v>218</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13790,25 +13758,25 @@
         <v>92</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>422</v>
+        <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>423</v>
+        <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>424</v>
+        <v>113</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13816,21 +13784,21 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13842,15 +13810,17 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13887,31 +13857,31 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
@@ -13923,7 +13893,7 @@
         <v>82</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13934,42 +13904,42 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>140</v>
+        <v>426</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>141</v>
+        <v>427</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>221</v>
+        <v>428</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>143</v>
+        <v>429</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -14007,31 +13977,31 @@
         <v>82</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>222</v>
+        <v>430</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>104</v>
+        <v>431</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
@@ -14040,10 +14010,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>82</v>
+        <v>432</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>106</v>
+        <v>433</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -14054,10 +14024,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14080,7 +14050,7 @@
         <v>93</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>436</v>
@@ -14095,7 +14065,9 @@
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="R96" t="s" s="2">
         <v>82</v>
       </c>
@@ -14139,7 +14111,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14148,7 +14120,7 @@
         <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -14177,7 +14149,7 @@
         <v>443</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14185,13 +14157,13 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>82</v>
@@ -14200,7 +14172,7 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>445</v>
@@ -14215,9 +14187,7 @@
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q97" t="s" s="2">
-        <v>448</v>
-      </c>
+      <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14261,7 +14231,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14270,7 +14240,7 @@
         <v>92</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>440</v>
+        <v>104</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>105</v>
@@ -14282,13 +14252,13 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AO97" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>82</v>
@@ -14296,10 +14266,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14310,7 +14280,7 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -14322,18 +14292,20 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O98" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="N98" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -14381,22 +14353,22 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>82</v>
@@ -14430,7 +14402,7 @@
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>82</v>
@@ -14451,10 +14423,10 @@
         <v>463</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>168</v>
+        <v>464</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14491,16 +14463,14 @@
         <v>82</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="AC99" s="2"/>
       <c r="AD99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>460</v>
@@ -14509,41 +14479,43 @@
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>104</v>
+        <v>466</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>82</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="D100" t="s" s="2">
         <v>82</v>
       </c>
@@ -14564,19 +14536,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14613,59 +14585,59 @@
         <v>82</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AC100" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AG100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14683,23 +14655,19 @@
         <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>482</v>
+        <v>215</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>471</v>
+        <v>216</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14747,7 +14715,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>469</v>
+        <v>218</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14756,7 +14724,7 @@
         <v>92</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>82</v>
@@ -14765,38 +14733,38 @@
         <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>476</v>
+        <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>478</v>
+        <v>113</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
@@ -14808,15 +14776,17 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14853,31 +14823,31 @@
         <v>82</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>82</v>
@@ -14889,7 +14859,7 @@
         <v>82</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14900,44 +14870,46 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>140</v>
+        <v>480</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>141</v>
+        <v>481</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>221</v>
+        <v>482</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
       </c>
@@ -14973,31 +14945,31 @@
         <v>82</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>222</v>
+        <v>485</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -15006,10 +14978,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>82</v>
+        <v>486</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>106</v>
+        <v>487</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -15020,10 +14992,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15031,22 +15003,22 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I104" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J104" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>489</v>
+        <v>115</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>490</v>
@@ -15055,15 +15027,17 @@
         <v>491</v>
       </c>
       <c r="N104" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O104" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="O104" t="s" s="2">
+      <c r="P104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q104" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="P104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
         <v>82</v>
       </c>
@@ -15083,13 +15057,13 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>82</v>
+        <v>494</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>82</v>
+        <v>495</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -15107,7 +15081,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15128,10 +15102,10 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15142,10 +15116,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15153,41 +15127,39 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q105" t="s" s="2">
-        <v>502</v>
-      </c>
+      <c r="Q105" s="2"/>
       <c r="R105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15207,31 +15179,31 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="Z105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF105" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15252,10 +15224,10 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15266,10 +15238,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B106" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15292,16 +15264,16 @@
         <v>93</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>512</v>
@@ -15311,7 +15283,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>82</v>
+        <v>513</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>82</v>
@@ -15353,7 +15325,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15362,7 +15334,7 @@
         <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>104</v>
+        <v>515</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>105</v>
@@ -15374,10 +15346,10 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15388,10 +15360,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15414,10 +15386,10 @@
         <v>93</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M107" t="s" s="2">
         <v>519</v>
@@ -15433,31 +15405,31 @@
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y107" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="S107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="Z107" t="s" s="2">
-        <v>82</v>
+        <v>523</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15475,7 +15447,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15484,7 +15456,7 @@
         <v>92</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>524</v>
+        <v>104</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>105</v>
@@ -15496,7 +15468,7 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>525</v>
@@ -15513,7 +15485,7 @@
         <v>526</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15521,25 +15493,25 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>528</v>
@@ -15573,13 +15545,13 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>188</v>
+        <v>531</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15597,7 +15569,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15606,7 +15578,7 @@
         <v>92</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>104</v>
+        <v>534</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>105</v>
@@ -15618,10 +15590,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>514</v>
+        <v>106</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15632,21 +15604,21 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>82</v>
+        <v>537</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
@@ -15661,16 +15633,16 @@
         <v>198</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15695,13 +15667,13 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15719,16 +15691,16 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>543</v>
+        <v>104</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>105</v>
@@ -15737,31 +15709,31 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>106</v>
+        <v>545</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>546</v>
+        <v>82</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15780,19 +15752,19 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>198</v>
+        <v>549</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15817,13 +15789,13 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>551</v>
+        <v>82</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>552</v>
+        <v>82</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15841,7 +15813,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15859,7 +15831,7 @@
         <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>553</v>
+        <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>554</v>
@@ -15871,15 +15843,15 @@
         <v>82</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>556</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15890,7 +15862,7 @@
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
@@ -15902,20 +15874,18 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M111" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>562</v>
-      </c>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
@@ -15939,13 +15909,13 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>82</v>
+        <v>560</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>82</v>
+        <v>561</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -15963,13 +15933,13 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>104</v>
@@ -15981,7 +15951,7 @@
         <v>82</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>82</v>
+        <v>562</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>563</v>
@@ -15993,15 +15963,15 @@
         <v>82</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>82</v>
+        <v>565</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16027,15 +15997,17 @@
         <v>198</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
       </c>
@@ -16062,10 +16034,10 @@
         <v>355</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -16083,7 +16055,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16101,19 +16073,19 @@
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>571</v>
+        <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>574</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" hidden="true">
@@ -16144,20 +16116,18 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>198</v>
+        <v>576</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O113" t="s" s="2">
         <v>579</v>
       </c>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
@@ -16181,13 +16151,13 @@
         <v>82</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>580</v>
+        <v>82</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>581</v>
+        <v>82</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16217,25 +16187,25 @@
         <v>104</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>82</v>
+        <v>580</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="AN113" t="s" s="2">
+      <c r="AO113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP113" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="114" hidden="true">
@@ -16374,7 +16344,7 @@
         <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>82</v>
@@ -16397,7 +16367,9 @@
       <c r="N115" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="O115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16451,31 +16423,31 @@
         <v>80</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>170</v>
+        <v>599</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>598</v>
+        <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>601</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" hidden="true">
@@ -16494,7 +16466,7 @@
         <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>82</v>
@@ -16506,20 +16478,16 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>603</v>
+        <v>215</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>604</v>
+        <v>216</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16567,19 +16535,19 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>602</v>
+        <v>218</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>82</v>
@@ -16588,10 +16556,10 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>609</v>
+        <v>82</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>610</v>
+        <v>113</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16602,21 +16570,21 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
@@ -16628,15 +16596,17 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16673,31 +16643,31 @@
         <v>82</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC117" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>82</v>
@@ -16709,7 +16679,7 @@
         <v>82</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16720,14 +16690,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>139</v>
+        <v>605</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16740,24 +16710,26 @@
         <v>82</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>141</v>
+        <v>606</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>221</v>
+        <v>607</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16793,19 +16765,19 @@
         <v>82</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>222</v>
+        <v>608</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16840,46 +16812,44 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>614</v>
+        <v>82</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>140</v>
+        <v>610</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16927,31 +16897,31 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16988,16 +16958,16 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="M120" t="s" s="2">
-        <v>621</v>
-      </c>
       <c r="N120" t="s" s="2">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -17056,10 +17026,10 @@
         <v>92</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
@@ -17068,10 +17038,10 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -17082,10 +17052,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17108,18 +17078,20 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>619</v>
+        <v>198</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O121" s="2"/>
+        <v>625</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
       </c>
@@ -17143,13 +17115,13 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>82</v>
+        <v>627</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>82</v>
+        <v>628</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17167,7 +17139,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17176,22 +17148,22 @@
         <v>92</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>623</v>
+        <v>104</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>624</v>
+        <v>105</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>82</v>
+        <v>629</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>630</v>
+        <v>546</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17216,7 +17188,7 @@
         <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>82</v>
@@ -17265,7 +17237,7 @@
         <v>82</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>119</v>
+        <v>355</v>
       </c>
       <c r="Y122" t="s" s="2">
         <v>636</v>
@@ -17295,7 +17267,7 @@
         <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>104</v>
@@ -17307,13 +17279,13 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17324,10 +17296,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17338,7 +17310,7 @@
         <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>82</v>
@@ -17350,19 +17322,19 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>198</v>
+        <v>639</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="N123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -17387,13 +17359,13 @@
         <v>82</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>645</v>
+        <v>82</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>646</v>
+        <v>82</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>82</v>
@@ -17411,31 +17383,31 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>105</v>
+        <v>644</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>638</v>
+        <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>555</v>
+        <v>646</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17472,20 +17444,18 @@
         <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="M124" t="s" s="2">
-        <v>650</v>
-      </c>
       <c r="N124" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>652</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>82</v>
       </c>
@@ -17545,7 +17515,7 @@
         <v>104</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>653</v>
+        <v>105</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>82</v>
@@ -17554,10 +17524,10 @@
         <v>82</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>654</v>
+        <v>616</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17568,10 +17538,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17582,7 +17552,7 @@
         <v>80</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>82</v>
@@ -17591,19 +17561,19 @@
         <v>82</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>215</v>
+        <v>652</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>259</v>
+        <v>655</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -17653,19 +17623,19 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>82</v>
@@ -17674,10 +17644,10 @@
         <v>82</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17688,10 +17658,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17699,13 +17669,13 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I126" t="s" s="2">
         <v>82</v>
@@ -17714,16 +17684,16 @@
         <v>93</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -17773,7 +17743,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17794,10 +17764,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17808,10 +17778,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17819,13 +17789,13 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I127" t="s" s="2">
         <v>82</v>
@@ -17834,18 +17804,20 @@
         <v>93</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="O127" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L127" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>82</v>
       </c>
@@ -17893,7 +17865,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17905,7 +17877,7 @@
         <v>104</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
@@ -17914,10 +17886,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17928,10 +17900,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17942,7 +17914,7 @@
         <v>80</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>82</v>
@@ -17951,23 +17923,19 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>603</v>
+        <v>215</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>674</v>
+        <v>216</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>677</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>82</v>
       </c>
@@ -18015,19 +17983,19 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>673</v>
+        <v>218</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>82</v>
@@ -18036,10 +18004,10 @@
         <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>678</v>
+        <v>82</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>679</v>
+        <v>113</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -18050,21 +18018,21 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>82</v>
@@ -18076,15 +18044,17 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N129" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18121,31 +18091,31 @@
         <v>82</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC129" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>82</v>
@@ -18157,7 +18127,7 @@
         <v>82</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -18168,14 +18138,14 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>139</v>
+        <v>605</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -18188,24 +18158,26 @@
         <v>82</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>141</v>
+        <v>606</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>221</v>
+        <v>607</v>
       </c>
       <c r="N130" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O130" s="2"/>
+      <c r="O130" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
       </c>
@@ -18241,19 +18213,19 @@
         <v>82</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC130" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>222</v>
+        <v>608</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18288,45 +18260,45 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>614</v>
+        <v>82</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>615</v>
+        <v>675</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>616</v>
+        <v>676</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>143</v>
+        <v>677</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18351,13 +18323,13 @@
         <v>82</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>82</v>
@@ -18375,34 +18347,34 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>617</v>
+        <v>674</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>82</v>
+        <v>678</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18410,10 +18382,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18421,7 +18393,7 @@
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>92</v>
@@ -18436,19 +18408,19 @@
         <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>198</v>
+        <v>461</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>685</v>
+        <v>463</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>354</v>
+        <v>465</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18473,13 +18445,13 @@
         <v>82</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>82</v>
@@ -18497,10 +18469,10 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>92</v>
@@ -18515,27 +18487,27 @@
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>360</v>
+        <v>468</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>361</v>
+        <v>469</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="AP132" t="s" s="2">
-        <v>82</v>
+        <v>470</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18555,22 +18527,22 @@
         <v>82</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>470</v>
+        <v>198</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>472</v>
+        <v>685</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -18595,13 +18567,13 @@
         <v>82</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>82</v>
@@ -18619,7 +18591,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18628,7 +18600,7 @@
         <v>92</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>104</v>
+        <v>534</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>105</v>
@@ -18637,38 +18609,38 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>691</v>
+        <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>477</v>
+        <v>106</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP133" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>82</v>
+        <v>537</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>82</v>
@@ -18683,16 +18655,16 @@
         <v>198</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>693</v>
+        <v>538</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>694</v>
+        <v>539</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>695</v>
+        <v>540</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18717,13 +18689,13 @@
         <v>82</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>82</v>
@@ -18741,16 +18713,16 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>543</v>
+        <v>104</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>105</v>
@@ -18759,31 +18731,31 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>106</v>
+        <v>545</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>546</v>
+        <v>82</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -18802,19 +18774,19 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>547</v>
+        <v>689</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>548</v>
+        <v>690</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>549</v>
+        <v>597</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18839,13 +18811,13 @@
         <v>82</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>551</v>
+        <v>82</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>552</v>
+        <v>82</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>82</v>
@@ -18863,7 +18835,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18872,154 +18844,32 @@
         <v>81</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>553</v>
+        <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP135" t="s" s="2">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="P136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP136" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP136">
+  <autoFilter ref="A1:AP135">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19029,7 +18879,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI135">
+  <conditionalFormatting sqref="A2:AI134">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5235" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5235" uniqueCount="690">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2517,7 +2514,7 @@
     <col min="26" max="26" width="54.5859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4307,10 +4304,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4334,13 +4331,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4348,13 +4345,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4458,13 +4455,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4472,10 +4469,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4498,13 +4495,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4555,7 +4552,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4590,10 +4587,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4622,7 +4619,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4675,7 +4672,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4710,10 +4707,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4736,19 +4733,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4797,7 +4794,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4818,10 +4815,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4832,10 +4829,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4858,13 +4855,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4915,7 +4912,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4950,10 +4947,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4982,7 +4979,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -5035,7 +5032,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -5070,10 +5067,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5099,65 +5096,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5178,10 +5175,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5192,10 +5189,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5218,16 +5215,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5277,7 +5274,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5298,10 +5295,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5312,10 +5309,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5341,65 +5338,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5420,10 +5417,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5434,10 +5431,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5460,19 +5457,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5521,7 +5518,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5542,10 +5539,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5556,10 +5553,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5582,19 +5579,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5643,7 +5640,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5664,10 +5661,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5678,10 +5675,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5704,19 +5701,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5765,7 +5762,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5786,10 +5783,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5800,13 +5797,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5910,13 +5907,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5924,10 +5921,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5950,13 +5947,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -6007,7 +6004,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -6042,10 +6039,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6074,7 +6071,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -6127,7 +6124,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6162,10 +6159,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6188,19 +6185,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6249,7 +6246,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6270,10 +6267,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6284,10 +6281,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6310,13 +6307,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6367,7 +6364,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6402,10 +6399,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6434,7 +6431,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6487,7 +6484,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6522,10 +6519,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6551,23 +6548,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6609,7 +6606,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6630,10 +6627,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6644,10 +6641,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6670,16 +6667,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6729,7 +6726,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6750,10 +6747,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6764,10 +6761,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6793,23 +6790,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6851,7 +6848,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6872,10 +6869,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6886,10 +6883,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6912,19 +6909,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6973,7 +6970,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6994,10 +6991,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -7008,10 +7005,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7034,19 +7031,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7095,7 +7092,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7116,10 +7113,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7130,10 +7127,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7156,19 +7153,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7217,7 +7214,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7238,10 +7235,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7252,13 +7249,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7362,13 +7359,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7376,10 +7373,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7402,13 +7399,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7459,7 +7456,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7494,10 +7491,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7526,7 +7523,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7579,7 +7576,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7614,10 +7611,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7640,19 +7637,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7701,7 +7698,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7722,10 +7719,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7736,10 +7733,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7762,13 +7759,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7819,7 +7816,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7854,10 +7851,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7886,7 +7883,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7939,7 +7936,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7974,10 +7971,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8003,23 +8000,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -8061,7 +8058,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8082,10 +8079,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8096,10 +8093,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8122,16 +8119,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8181,7 +8178,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8202,10 +8199,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8216,10 +8213,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8245,23 +8242,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8303,7 +8300,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8324,10 +8321,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8338,10 +8335,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8364,19 +8361,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8425,7 +8422,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8446,10 +8443,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8460,10 +8457,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8486,19 +8483,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8547,7 +8544,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8568,10 +8565,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8582,10 +8579,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8608,19 +8605,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8669,7 +8666,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8690,10 +8687,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8704,13 +8701,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8814,13 +8811,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8828,10 +8825,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8854,13 +8851,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8911,7 +8908,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8946,10 +8943,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8978,7 +8975,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -9031,7 +9028,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9066,10 +9063,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9092,19 +9089,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9153,7 +9150,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9174,10 +9171,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9188,10 +9185,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9214,13 +9211,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9271,7 +9268,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9306,10 +9303,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9338,7 +9335,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9391,7 +9388,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9426,10 +9423,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9455,23 +9452,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9513,7 +9510,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9534,10 +9531,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9548,10 +9545,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9574,16 +9571,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9633,7 +9630,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9654,10 +9651,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9668,10 +9665,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9697,23 +9694,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9755,7 +9752,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9776,10 +9773,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9790,10 +9787,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9816,19 +9813,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9877,7 +9874,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9898,10 +9895,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9912,10 +9909,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9938,19 +9935,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9999,7 +9996,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10020,10 +10017,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -10034,10 +10031,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10060,19 +10057,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10121,7 +10118,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10142,10 +10139,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10156,13 +10153,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
@@ -10266,13 +10263,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10280,10 +10277,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10306,13 +10303,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10363,7 +10360,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10398,10 +10395,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10430,7 +10427,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10483,7 +10480,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10518,10 +10515,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10544,19 +10541,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10605,7 +10602,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10626,10 +10623,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10640,10 +10637,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10666,13 +10663,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10723,7 +10720,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10758,10 +10755,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10790,7 +10787,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10843,7 +10840,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10878,10 +10875,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10907,23 +10904,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10965,7 +10962,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10986,10 +10983,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -11000,10 +10997,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11026,16 +11023,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11085,7 +11082,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11106,10 +11103,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11120,10 +11117,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11149,23 +11146,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11207,7 +11204,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11228,10 +11225,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11242,10 +11239,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11268,19 +11265,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11329,7 +11326,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11350,10 +11347,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11364,10 +11361,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11390,19 +11387,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11451,7 +11448,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11472,10 +11469,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11486,10 +11483,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11512,19 +11509,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11573,7 +11570,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11594,10 +11591,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11608,14 +11605,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11637,16 +11634,16 @@
         <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11671,14 +11668,14 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y76" t="s" s="2">
+      <c r="Z76" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11695,7 +11692,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>92</v>
@@ -11710,30 +11707,30 @@
         <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AO76" t="s" s="2">
+      <c r="AP76" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11756,13 +11753,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11813,7 +11810,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11848,10 +11845,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11880,7 +11877,7 @@
         <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>143</v>
@@ -11933,7 +11930,7 @@
         <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11968,10 +11965,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11994,19 +11991,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12055,7 +12052,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12076,10 +12073,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12090,10 +12087,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12116,13 +12113,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12173,7 +12170,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12208,10 +12205,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12240,7 +12237,7 @@
         <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>143</v>
@@ -12293,7 +12290,7 @@
         <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12328,10 +12325,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12357,23 +12354,23 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12415,7 +12412,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12436,10 +12433,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12450,10 +12447,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12476,16 +12473,16 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12535,7 +12532,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12556,10 +12553,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12570,10 +12567,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12599,23 +12596,23 @@
         <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12657,7 +12654,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12678,10 +12675,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12692,10 +12689,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12718,19 +12715,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12779,7 +12776,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12800,10 +12797,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12814,10 +12811,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12840,19 +12837,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12901,7 +12898,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12922,10 +12919,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12936,10 +12933,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12962,19 +12959,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12984,7 +12981,7 @@
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -13023,7 +13020,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13044,10 +13041,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13058,10 +13055,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13084,19 +13081,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13145,7 +13142,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13160,19 +13157,19 @@
         <v>170</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AO88" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -13180,10 +13177,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13206,16 +13203,16 @@
         <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13265,7 +13262,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13286,13 +13283,13 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13300,14 +13297,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13326,19 +13323,19 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13387,7 +13384,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13402,19 +13399,19 @@
         <v>170</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AL90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM90" t="s" s="2">
+      <c r="AN90" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AN90" t="s" s="2">
+      <c r="AO90" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13422,14 +13419,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13448,19 +13445,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13497,7 +13494,7 @@
         <v>82</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AC91" s="2"/>
       <c r="AD91" t="s" s="2">
@@ -13507,7 +13504,7 @@
         <v>146</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13522,19 +13519,19 @@
         <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AO91" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13542,16 +13539,16 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C92" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="D92" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="D92" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13570,19 +13567,19 @@
         <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13631,7 +13628,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13646,19 +13643,19 @@
         <v>82</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AO92" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13666,10 +13663,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B93" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13692,13 +13689,13 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13749,7 +13746,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13784,10 +13781,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B94" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13816,7 +13813,7 @@
         <v>141</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>143</v>
@@ -13869,7 +13866,7 @@
         <v>146</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13904,10 +13901,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B95" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13930,16 +13927,16 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13989,16 +13986,16 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI95" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>105</v>
@@ -14010,10 +14007,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -14024,10 +14021,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B96" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14050,69 +14047,69 @@
         <v>93</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF96" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="R96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
@@ -14120,7 +14117,7 @@
         <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -14132,10 +14129,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14146,10 +14143,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14172,16 +14169,16 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14231,7 +14228,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14252,13 +14249,13 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AO97" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>82</v>
@@ -14266,10 +14263,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14292,19 +14289,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14353,7 +14350,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14368,19 +14365,19 @@
         <v>170</v>
       </c>
       <c r="AK98" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AL98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AN98" t="s" s="2">
+      <c r="AO98" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14388,10 +14385,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14414,19 +14411,19 @@
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14463,7 +14460,7 @@
         <v>82</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AC99" s="2"/>
       <c r="AD99" t="s" s="2">
@@ -14473,7 +14470,7 @@
         <v>146</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14482,7 +14479,7 @@
         <v>92</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>105</v>
@@ -14491,30 +14488,30 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AM99" t="s" s="2">
+      <c r="AN99" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AN99" t="s" s="2">
+      <c r="AO99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP99" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP99" t="s" s="2">
-        <v>470</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C100" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>82</v>
@@ -14536,19 +14533,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14597,7 +14594,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14606,36 +14603,36 @@
         <v>92</v>
       </c>
       <c r="AI100" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL100" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AJ100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL100" t="s" s="2">
+      <c r="AM100" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AM100" t="s" s="2">
+      <c r="AN100" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AO100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP100" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP100" t="s" s="2">
-        <v>470</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B101" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14658,13 +14655,13 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14715,7 +14712,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14750,10 +14747,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14782,7 +14779,7 @@
         <v>141</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>143</v>
@@ -14835,7 +14832,7 @@
         <v>146</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14870,10 +14867,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B103" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14896,19 +14893,19 @@
         <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14957,7 +14954,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14978,10 +14975,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14992,10 +14989,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B104" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15021,22 +15018,22 @@
         <v>115</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O104" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="N104" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O104" t="s" s="2">
+      <c r="P104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q104" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q104" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>82</v>
@@ -15060,28 +15057,28 @@
         <v>188</v>
       </c>
       <c r="Y104" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z104" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="Z104" t="s" s="2">
+      <c r="AA104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF104" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15102,10 +15099,10 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15116,10 +15113,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B105" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15142,19 +15139,19 @@
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O105" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15203,7 +15200,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15224,10 +15221,10 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15238,10 +15235,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B106" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15267,74 +15264,74 @@
         <v>108</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF106" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="S106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF106" t="s" s="2">
+      <c r="AG106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI106" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>105</v>
@@ -15346,10 +15343,10 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15360,10 +15357,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B107" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15389,16 +15386,16 @@
         <v>115</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15426,28 +15423,28 @@
         <v>188</v>
       </c>
       <c r="Y107" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Z107" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="Z107" t="s" s="2">
+      <c r="AA107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF107" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15468,10 +15465,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15482,10 +15479,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15511,16 +15508,16 @@
         <v>198</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N108" t="s" s="2">
+      <c r="O108" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15545,40 +15542,40 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Y108" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="Y108" t="s" s="2">
+      <c r="Z108" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="Z108" t="s" s="2">
+      <c r="AA108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI108" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>105</v>
@@ -15593,7 +15590,7 @@
         <v>106</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15604,14 +15601,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15633,16 +15630,16 @@
         <v>198</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15667,14 +15664,14 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Y109" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="Z109" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="Z109" t="s" s="2">
-        <v>543</v>
-      </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
       </c>
@@ -15691,7 +15688,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15709,27 +15706,27 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="AM109" t="s" s="2">
+      <c r="AN109" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AN109" t="s" s="2">
+      <c r="AO109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP109" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>547</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15752,19 +15749,19 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15813,7 +15810,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15834,10 +15831,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AN110" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15848,10 +15845,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15877,13 +15874,13 @@
         <v>198</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15909,14 +15906,14 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y111" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="Z111" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="Z111" t="s" s="2">
-        <v>561</v>
-      </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
       </c>
@@ -15933,7 +15930,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15951,27 +15948,27 @@
         <v>82</v>
       </c>
       <c r="AL111" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM111" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AM111" t="s" s="2">
+      <c r="AN111" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AN111" t="s" s="2">
+      <c r="AO111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP111" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP111" t="s" s="2">
-        <v>565</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15997,16 +15994,16 @@
         <v>198</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="N112" t="s" s="2">
+      <c r="O112" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -16031,14 +16028,14 @@
         <v>82</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y112" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="Z112" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="Z112" t="s" s="2">
-        <v>572</v>
-      </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
       </c>
@@ -16055,7 +16052,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16076,10 +16073,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16090,10 +16087,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16116,16 +16113,16 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16175,7 +16172,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16193,27 +16190,27 @@
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM113" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="AM113" t="s" s="2">
+      <c r="AN113" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AN113" t="s" s="2">
+      <c r="AO113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP113" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>583</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16236,16 +16233,16 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16295,7 +16292,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16313,27 +16310,27 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AM114" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="AM114" t="s" s="2">
+      <c r="AN114" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="AN114" t="s" s="2">
+      <c r="AO114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP114" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP114" t="s" s="2">
-        <v>592</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16356,19 +16353,19 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="N115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16417,7 +16414,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16429,19 +16426,19 @@
         <v>104</v>
       </c>
       <c r="AJ115" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM115" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="AK115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM115" t="s" s="2">
+      <c r="AN115" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16452,10 +16449,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16478,13 +16475,13 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16535,7 +16532,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16570,10 +16567,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16602,7 +16599,7 @@
         <v>141</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>143</v>
@@ -16655,7 +16652,7 @@
         <v>146</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16690,14 +16687,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16719,10 +16716,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16777,7 +16774,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16812,10 +16809,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16838,16 +16835,16 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -16897,7 +16894,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16906,22 +16903,22 @@
         <v>92</v>
       </c>
       <c r="AI119" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="AJ119" t="s" s="2">
+      <c r="AK119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM119" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="AK119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM119" t="s" s="2">
+      <c r="AN119" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16932,10 +16929,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16958,16 +16955,16 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M120" t="s" s="2">
-        <v>620</v>
-      </c>
       <c r="N120" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -17017,7 +17014,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17026,22 +17023,22 @@
         <v>92</v>
       </c>
       <c r="AI120" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="AJ120" t="s" s="2">
+      <c r="AK120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM120" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="AK120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>616</v>
-      </c>
       <c r="AN120" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -17052,10 +17049,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17081,16 +17078,16 @@
         <v>198</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="N121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17118,11 +17115,11 @@
         <v>119</v>
       </c>
       <c r="Y121" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="Z121" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="Z121" t="s" s="2">
-        <v>628</v>
-      </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
       </c>
@@ -17139,7 +17136,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17157,13 +17154,13 @@
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="AM121" t="s" s="2">
-        <v>630</v>
-      </c>
       <c r="AN121" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17174,10 +17171,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17203,16 +17200,16 @@
         <v>198</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17237,14 +17234,14 @@
         <v>82</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y122" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="Z122" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="Z122" t="s" s="2">
-        <v>637</v>
-      </c>
       <c r="AA122" t="s" s="2">
         <v>82</v>
       </c>
@@ -17261,7 +17258,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17279,13 +17276,13 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="AM122" t="s" s="2">
-        <v>630</v>
-      </c>
       <c r="AN122" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17296,10 +17293,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17322,19 +17319,19 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="N123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -17383,7 +17380,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17395,19 +17392,19 @@
         <v>104</v>
       </c>
       <c r="AJ123" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM123" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="AK123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM123" t="s" s="2">
+      <c r="AN123" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17418,10 +17415,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17444,16 +17441,16 @@
         <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="M124" t="s" s="2">
-        <v>649</v>
-      </c>
       <c r="N124" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -17503,7 +17500,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17524,10 +17521,10 @@
         <v>82</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17538,10 +17535,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17564,16 +17561,16 @@
         <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="M125" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -17623,7 +17620,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17644,10 +17641,10 @@
         <v>82</v>
       </c>
       <c r="AM125" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AN125" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17658,10 +17655,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17684,16 +17681,16 @@
         <v>93</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -17743,7 +17740,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17764,10 +17761,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17778,10 +17775,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17804,19 +17801,19 @@
         <v>93</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="N127" t="s" s="2">
+      <c r="O127" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17865,7 +17862,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17886,10 +17883,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AN127" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17900,10 +17897,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17926,13 +17923,13 @@
         <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="M128" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -17983,7 +17980,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18018,10 +18015,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18050,7 +18047,7 @@
         <v>141</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>143</v>
@@ -18103,7 +18100,7 @@
         <v>146</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18138,14 +18135,14 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -18167,10 +18164,10 @@
         <v>140</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="N130" t="s" s="2">
         <v>143</v>
@@ -18225,7 +18222,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18260,10 +18257,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18289,16 +18286,16 @@
         <v>198</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="N131" t="s" s="2">
-        <v>677</v>
-      </c>
       <c r="O131" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18323,14 +18320,14 @@
         <v>82</v>
       </c>
       <c r="X131" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y131" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y131" t="s" s="2">
+      <c r="Z131" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z131" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AA131" t="s" s="2">
         <v>82</v>
       </c>
@@ -18347,7 +18344,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>92</v>
@@ -18365,16 +18362,16 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AM131" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AN131" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN131" t="s" s="2">
+      <c r="AO131" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18382,10 +18379,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18408,19 +18405,19 @@
         <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N132" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="M132" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>681</v>
-      </c>
       <c r="O132" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18469,7 +18466,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18487,27 +18484,27 @@
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AM132" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN132" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AN132" t="s" s="2">
+      <c r="AO132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP132" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP132" t="s" s="2">
-        <v>470</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18533,16 +18530,16 @@
         <v>198</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="N133" t="s" s="2">
-        <v>686</v>
-      </c>
       <c r="O133" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -18567,40 +18564,40 @@
         <v>82</v>
       </c>
       <c r="X133" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Y133" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="Y133" t="s" s="2">
+      <c r="Z133" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="Z133" t="s" s="2">
+      <c r="AA133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI133" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>105</v>
@@ -18615,7 +18612,7 @@
         <v>106</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18626,14 +18623,14 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -18655,16 +18652,16 @@
         <v>198</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18689,14 +18686,14 @@
         <v>82</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Y134" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="Z134" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="Z134" t="s" s="2">
-        <v>543</v>
-      </c>
       <c r="AA134" t="s" s="2">
         <v>82</v>
       </c>
@@ -18713,7 +18710,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18731,27 +18728,27 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AM134" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="AM134" t="s" s="2">
+      <c r="AN134" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AN134" t="s" s="2">
+      <c r="AO134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP134" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP134" t="s" s="2">
-        <v>547</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18777,16 +18774,16 @@
         <v>83</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="M135" t="s" s="2">
-        <v>690</v>
-      </c>
       <c r="N135" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="O135" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18835,7 +18832,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18856,10 +18853,10 @@
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AN135" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5235" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5235" uniqueCount="691">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,11 +657,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -4304,10 +4307,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4331,13 +4334,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4345,13 +4348,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4455,13 +4458,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4469,10 +4472,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4495,13 +4498,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4552,7 +4555,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4587,10 +4590,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4619,7 +4622,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4672,7 +4675,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4707,10 +4710,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4718,13 +4721,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4733,19 +4736,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4794,7 +4797,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4815,10 +4818,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4829,10 +4832,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4855,13 +4858,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4912,7 +4915,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4947,10 +4950,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4979,7 +4982,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -5032,7 +5035,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -5067,10 +5070,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5078,13 +5081,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5096,23 +5099,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -5154,7 +5157,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5175,10 +5178,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5189,10 +5192,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5215,16 +5218,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5274,7 +5277,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5295,10 +5298,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5309,10 +5312,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5320,13 +5323,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5338,23 +5341,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -5396,7 +5399,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5417,10 +5420,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5431,10 +5434,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5457,19 +5460,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5518,7 +5521,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5539,10 +5542,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5553,10 +5556,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5579,19 +5582,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5640,7 +5643,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5661,10 +5664,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5675,10 +5678,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5701,19 +5704,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5762,7 +5765,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5783,10 +5786,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5797,13 +5800,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5907,13 +5910,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5921,10 +5924,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5947,13 +5950,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -6004,7 +6007,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -6039,10 +6042,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6071,7 +6074,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -6124,7 +6127,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6159,10 +6162,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6170,13 +6173,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6185,19 +6188,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6246,7 +6249,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6267,10 +6270,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6281,10 +6284,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6307,13 +6310,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6364,7 +6367,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6399,10 +6402,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6431,7 +6434,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6484,7 +6487,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6519,10 +6522,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6530,13 +6533,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6548,23 +6551,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6606,7 +6609,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6627,10 +6630,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6641,10 +6644,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6667,16 +6670,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6726,7 +6729,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6747,10 +6750,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6761,10 +6764,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6772,13 +6775,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -6790,23 +6793,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6848,7 +6851,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6869,10 +6872,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6883,10 +6886,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6909,19 +6912,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6970,7 +6973,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6991,10 +6994,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -7005,10 +7008,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7031,19 +7034,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7092,7 +7095,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7113,10 +7116,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7127,10 +7130,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7153,19 +7156,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7214,7 +7217,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7235,10 +7238,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7249,13 +7252,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7359,13 +7362,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7373,10 +7376,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7399,13 +7402,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7456,7 +7459,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7491,10 +7494,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7523,7 +7526,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7576,7 +7579,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7611,10 +7614,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7622,13 +7625,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7637,19 +7640,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7698,7 +7701,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7719,10 +7722,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7733,10 +7736,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7759,13 +7762,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7816,7 +7819,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7851,10 +7854,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7883,7 +7886,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7936,7 +7939,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7971,10 +7974,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7982,13 +7985,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -8000,23 +8003,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -8058,7 +8061,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8079,10 +8082,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8093,10 +8096,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8119,16 +8122,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8178,7 +8181,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8199,10 +8202,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8213,10 +8216,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8224,13 +8227,13 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8242,23 +8245,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8300,7 +8303,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8321,10 +8324,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8335,10 +8338,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8361,19 +8364,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8422,7 +8425,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8443,10 +8446,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8457,10 +8460,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8483,19 +8486,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8544,7 +8547,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8565,10 +8568,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8579,10 +8582,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8605,19 +8608,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8666,7 +8669,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8687,10 +8690,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8701,13 +8704,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8811,13 +8814,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8825,10 +8828,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8851,13 +8854,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8908,7 +8911,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8943,10 +8946,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8975,7 +8978,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -9028,7 +9031,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9063,10 +9066,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9074,13 +9077,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9089,19 +9092,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9150,7 +9153,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9171,10 +9174,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9185,10 +9188,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9211,13 +9214,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9268,7 +9271,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9303,10 +9306,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9335,7 +9338,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9388,7 +9391,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9423,10 +9426,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9434,13 +9437,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9452,23 +9455,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9510,7 +9513,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9531,10 +9534,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9545,10 +9548,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9571,16 +9574,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9630,7 +9633,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9651,10 +9654,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9665,10 +9668,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9676,13 +9679,13 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -9694,23 +9697,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9752,7 +9755,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9773,10 +9776,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9787,10 +9790,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9813,19 +9816,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9874,7 +9877,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9895,10 +9898,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9909,10 +9912,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9935,19 +9938,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9996,7 +9999,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10017,10 +10020,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -10031,10 +10034,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10057,19 +10060,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10118,7 +10121,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10139,10 +10142,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10153,13 +10156,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
@@ -10263,13 +10266,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10277,10 +10280,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10303,13 +10306,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10360,7 +10363,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10395,10 +10398,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10427,7 +10430,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10480,7 +10483,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10515,10 +10518,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10526,13 +10529,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10541,19 +10544,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10602,7 +10605,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10623,10 +10626,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10637,10 +10640,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10663,13 +10666,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10720,7 +10723,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10755,10 +10758,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10787,7 +10790,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10840,7 +10843,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10875,10 +10878,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10886,13 +10889,13 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -10904,23 +10907,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10962,7 +10965,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10983,10 +10986,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10997,10 +11000,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11023,16 +11026,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11082,7 +11085,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11103,10 +11106,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11117,10 +11120,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11128,13 +11131,13 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
@@ -11146,23 +11149,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11204,7 +11207,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11225,10 +11228,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11239,10 +11242,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11265,19 +11268,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11326,7 +11329,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11347,10 +11350,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11361,10 +11364,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11387,19 +11390,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11448,7 +11451,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11469,10 +11472,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11483,10 +11486,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11509,19 +11512,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11570,7 +11573,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11591,10 +11594,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11605,14 +11608,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11634,16 +11637,16 @@
         <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11668,13 +11671,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11692,7 +11695,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>92</v>
@@ -11707,30 +11710,30 @@
         <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11753,13 +11756,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11810,7 +11813,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11845,10 +11848,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11877,7 +11880,7 @@
         <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>143</v>
@@ -11930,7 +11933,7 @@
         <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11965,10 +11968,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11991,19 +11994,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12052,7 +12055,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12073,10 +12076,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12087,10 +12090,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12113,13 +12116,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12170,7 +12173,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12205,10 +12208,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12237,7 +12240,7 @@
         <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>143</v>
@@ -12290,7 +12293,7 @@
         <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12325,10 +12328,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12354,23 +12357,23 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12412,7 +12415,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12433,10 +12436,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12447,10 +12450,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12473,16 +12476,16 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12532,7 +12535,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12553,10 +12556,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12567,10 +12570,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12596,23 +12599,23 @@
         <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12654,7 +12657,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12675,10 +12678,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12689,10 +12692,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12715,19 +12718,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12776,7 +12779,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12797,10 +12800,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12811,10 +12814,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12837,19 +12840,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12898,7 +12901,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12919,10 +12922,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12933,10 +12936,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12959,19 +12962,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12981,7 +12984,7 @@
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -13020,7 +13023,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13041,10 +13044,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13055,10 +13058,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13081,19 +13084,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13142,7 +13145,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13157,19 +13160,19 @@
         <v>170</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -13177,10 +13180,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13203,16 +13206,16 @@
         <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13262,7 +13265,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13283,13 +13286,13 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13297,14 +13300,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13323,19 +13326,19 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13384,7 +13387,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13399,19 +13402,19 @@
         <v>170</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13419,14 +13422,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13445,19 +13448,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13494,7 +13497,7 @@
         <v>82</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AC91" s="2"/>
       <c r="AD91" t="s" s="2">
@@ -13504,7 +13507,7 @@
         <v>146</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13519,19 +13522,19 @@
         <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13539,16 +13542,16 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13567,19 +13570,19 @@
         <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13628,7 +13631,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13643,19 +13646,19 @@
         <v>82</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13663,10 +13666,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13689,13 +13692,13 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13746,7 +13749,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13781,10 +13784,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13813,7 +13816,7 @@
         <v>141</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>143</v>
@@ -13866,7 +13869,7 @@
         <v>146</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13901,10 +13904,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13927,16 +13930,16 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13986,7 +13989,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13995,7 +13998,7 @@
         <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>105</v>
@@ -14007,10 +14010,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -14021,10 +14024,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14047,23 +14050,23 @@
         <v>93</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>82</v>
@@ -14108,7 +14111,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14117,7 +14120,7 @@
         <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -14129,10 +14132,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14143,10 +14146,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14169,16 +14172,16 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14228,7 +14231,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14249,13 +14252,13 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>82</v>
@@ -14263,10 +14266,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14289,19 +14292,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14350,7 +14353,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14365,19 +14368,19 @@
         <v>170</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14385,10 +14388,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14411,19 +14414,19 @@
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14460,7 +14463,7 @@
         <v>82</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AC99" s="2"/>
       <c r="AD99" t="s" s="2">
@@ -14470,7 +14473,7 @@
         <v>146</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14479,7 +14482,7 @@
         <v>92</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>105</v>
@@ -14488,30 +14491,30 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>82</v>
@@ -14533,19 +14536,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14594,7 +14597,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14603,7 +14606,7 @@
         <v>92</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>82</v>
@@ -14612,27 +14615,27 @@
         <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14655,13 +14658,13 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14712,7 +14715,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14747,10 +14750,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14779,7 +14782,7 @@
         <v>141</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>143</v>
@@ -14832,7 +14835,7 @@
         <v>146</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14867,10 +14870,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14893,19 +14896,19 @@
         <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14954,7 +14957,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14975,10 +14978,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14989,10 +14992,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15018,22 +15021,22 @@
         <v>115</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q104" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>82</v>
@@ -15057,10 +15060,10 @@
         <v>188</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -15078,7 +15081,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15099,10 +15102,10 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15113,10 +15116,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15139,19 +15142,19 @@
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15200,7 +15203,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15221,10 +15224,10 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15235,10 +15238,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15264,23 +15267,23 @@
         <v>108</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>82</v>
@@ -15322,7 +15325,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15331,7 +15334,7 @@
         <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>105</v>
@@ -15343,10 +15346,10 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15357,10 +15360,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15386,16 +15389,16 @@
         <v>115</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15423,10 +15426,10 @@
         <v>188</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15444,7 +15447,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15465,10 +15468,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15479,10 +15482,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15508,16 +15511,16 @@
         <v>198</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15542,13 +15545,13 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15566,7 +15569,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15575,7 +15578,7 @@
         <v>92</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>105</v>
@@ -15590,7 +15593,7 @@
         <v>106</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15601,14 +15604,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15630,16 +15633,16 @@
         <v>198</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15664,13 +15667,13 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15688,7 +15691,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15706,27 +15709,27 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15749,19 +15752,19 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15810,7 +15813,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15831,10 +15834,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15845,10 +15848,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15874,13 +15877,13 @@
         <v>198</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15906,13 +15909,13 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -15930,7 +15933,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15948,27 +15951,27 @@
         <v>82</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15994,16 +15997,16 @@
         <v>198</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -16028,13 +16031,13 @@
         <v>82</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -16052,7 +16055,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16073,10 +16076,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16087,10 +16090,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16113,16 +16116,16 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16172,7 +16175,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16190,27 +16193,27 @@
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16233,16 +16236,16 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16292,7 +16295,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16310,27 +16313,27 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16353,19 +16356,19 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16414,7 +16417,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16426,7 +16429,7 @@
         <v>104</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
@@ -16435,10 +16438,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16449,10 +16452,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16475,13 +16478,13 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16532,7 +16535,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16567,10 +16570,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16599,7 +16602,7 @@
         <v>141</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>143</v>
@@ -16652,7 +16655,7 @@
         <v>146</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16687,14 +16690,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16716,10 +16719,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16774,7 +16777,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16809,10 +16812,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16835,16 +16838,16 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -16894,7 +16897,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16903,10 +16906,10 @@
         <v>92</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
@@ -16915,10 +16918,10 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16929,10 +16932,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16955,16 +16958,16 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -17014,7 +17017,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17023,10 +17026,10 @@
         <v>92</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
@@ -17035,10 +17038,10 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -17049,10 +17052,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17078,16 +17081,16 @@
         <v>198</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17115,10 +17118,10 @@
         <v>119</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17136,7 +17139,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17154,13 +17157,13 @@
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17171,10 +17174,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17200,16 +17203,16 @@
         <v>198</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17234,13 +17237,13 @@
         <v>82</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>82</v>
@@ -17258,7 +17261,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17276,13 +17279,13 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17293,10 +17296,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17319,19 +17322,19 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -17380,7 +17383,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17392,7 +17395,7 @@
         <v>104</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
@@ -17401,10 +17404,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17415,10 +17418,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17441,16 +17444,16 @@
         <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -17500,7 +17503,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17521,10 +17524,10 @@
         <v>82</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17535,10 +17538,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17561,16 +17564,16 @@
         <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -17620,7 +17623,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17641,10 +17644,10 @@
         <v>82</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17655,10 +17658,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17681,16 +17684,16 @@
         <v>93</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -17740,7 +17743,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17761,10 +17764,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17775,10 +17778,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17801,19 +17804,19 @@
         <v>93</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17862,7 +17865,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17883,10 +17886,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17897,10 +17900,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17923,13 +17926,13 @@
         <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -17980,7 +17983,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18015,10 +18018,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18047,7 +18050,7 @@
         <v>141</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>143</v>
@@ -18100,7 +18103,7 @@
         <v>146</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18135,14 +18138,14 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -18164,10 +18167,10 @@
         <v>140</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N130" t="s" s="2">
         <v>143</v>
@@ -18222,7 +18225,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18257,10 +18260,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18286,16 +18289,16 @@
         <v>198</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18320,13 +18323,13 @@
         <v>82</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>82</v>
@@ -18344,7 +18347,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>92</v>
@@ -18362,16 +18365,16 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18379,10 +18382,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18405,19 +18408,19 @@
         <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18466,7 +18469,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18484,27 +18487,27 @@
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP132" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18530,16 +18533,16 @@
         <v>198</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -18564,13 +18567,13 @@
         <v>82</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>82</v>
@@ -18588,7 +18591,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18597,7 +18600,7 @@
         <v>92</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>105</v>
@@ -18612,7 +18615,7 @@
         <v>106</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18623,14 +18626,14 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -18652,16 +18655,16 @@
         <v>198</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18686,13 +18689,13 @@
         <v>82</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>82</v>
@@ -18710,7 +18713,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18728,27 +18731,27 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18774,16 +18777,16 @@
         <v>83</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18832,7 +18835,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18853,10 +18856,10 @@
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dieses CDE enthält das 'aktuelle Alter - berechnet'. Berechnung erfolgt aus dem bekannten Geburtsdatum und Zeitpunkt eines bestimmten Ereignis.</t>
+    <t>Dieses CDE enthält das 'aktuelle Alter - berechnet'.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-ncit-age</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4727,7 +4727,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -5087,7 +5087,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5329,7 +5329,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -6179,7 +6179,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6539,7 +6539,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6781,7 +6781,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7631,7 +7631,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7991,7 +7991,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -8233,7 +8233,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -9083,7 +9083,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9443,7 +9443,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9685,7 +9685,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -10535,7 +10535,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10895,7 +10895,7 @@
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -11137,7 +11137,7 @@
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8107,7 +8107,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1157,7 +1157,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>https://fhir.loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>
@@ -4307,7 +4307,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-current-age-calculated</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-current-age-calculated</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-ncit-age</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-age</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1633,7 +1633,7 @@
     <t>wk | a</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-time-units</t>
+    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-time-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2064,7 +2064,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-birth-date)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/de/myig/StructureDefinition/cde-birth-date)
 </t>
   </si>
   <si>
@@ -2514,7 +2514,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.5859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-current-age-calculated</t>
+    <t>http://fhir.org/de/StructureDefinition/cde-current-age-calculated</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-age</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-age</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1633,7 +1633,7 @@
     <t>wk | a</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-time-units</t>
+    <t>http://fhir.org/de/ValueSet/vs-time-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2064,7 +2064,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/de/myig/StructureDefinition/cde-birth-date)
+    <t xml:space="preserve">Reference(http://fhir.org/de/StructureDefinition/cde-birth-date)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cde-current-age-calculated</t>
+    <t>http://hl7.org/de/StructureDefinition/cde-current-age-calculated</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-age</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-ncit-age</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1633,7 +1633,7 @@
     <t>wk | a</t>
   </si>
   <si>
-    <t>http://fhir.org/de/ValueSet/vs-time-units</t>
+    <t>http://hl7.org/de/ValueSet/vs-time-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2064,7 +2064,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/de/StructureDefinition/cde-birth-date)
+    <t xml:space="preserve">Reference(http://hl7.org/de/StructureDefinition/cde-birth-date)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4364,7 +4364,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -5816,7 +5816,7 @@
         <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>93</v>
@@ -7268,7 +7268,7 @@
         <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>93</v>
@@ -8720,7 +8720,7 @@
         <v>92</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>93</v>
@@ -10172,7 +10172,7 @@
         <v>92</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>93</v>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8107,7 +8107,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1157,7 +1157,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://fhir.loinc.org</t>
+    <t>https://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1157,7 +1157,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://loinc.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-current-age-calculated.xlsx
+++ b/output/StructureDefinition-cde-current-age-calculated.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
